--- a/Nfl Futures 2024.xlsx
+++ b/Nfl Futures 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nels2\Documents\Python Scripts\NFL Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72A386-DAB9-42B4-95E4-5F8EF4D3BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6041AFC-FD1B-446F-9D35-700EB5192F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{983B7692-8B65-4294-8145-75FF5DD4DCDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
   <si>
     <t>49ers</t>
   </si>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE44DAE-D13B-4E00-87A2-1778BEAFE8B9}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +883,1062 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>450</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>550</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1000</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1100</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1200</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>1400</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1400</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>1600</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2000</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>2000</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>2000</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>3000</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>3500</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>3500</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>3500</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>4000</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>5000</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>5000</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>5000</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>6600</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>6600</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>6600</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>8000</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>8000</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>10000</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>15000</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>20000</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>20000</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>25000</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63">
+        <v>25000</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64">
+        <v>30000</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>50000</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>450</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>600</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>1100</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>1100</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>1200</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>1200</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>1400</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>1800</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>2000</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>2000</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>2500</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>3000</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>3500</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79">
+        <v>4000</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80">
+        <v>4000</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>4000</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>4000</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>4000</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>5000</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <v>5000</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>5000</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>6600</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88">
+        <v>6600</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89">
+        <v>8000</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>10000</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>15000</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92">
+        <v>25000</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93">
+        <v>25000</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94">
+        <v>30000</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95">
+        <v>30000</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>50000</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>75000</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>425</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>700</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>800</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>1200</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>1200</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>1400</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>1600</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>1200</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>2000</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>2500</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108">
+        <v>3000</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109">
+        <v>2200</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>4000</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111">
+        <v>3500</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112">
+        <v>3500</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113">
+        <v>4000</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114">
+        <v>5000</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115">
+        <v>6600</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116">
+        <v>5000</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>6600</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>10000</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>10000</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120">
+        <v>8000</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>10000</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>10000</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>6600</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124">
+        <v>15000</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125">
+        <v>30000</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126">
+        <v>30000</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127">
+        <v>30000</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128">
+        <v>30000</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129">
+        <v>75000</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
